--- a/g挂机.xlsx
+++ b/g挂机.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21756" windowHeight="8507" tabRatio="713"/>
+    <workbookView windowWidth="22368" windowHeight="9372" tabRatio="713"/>
   </bookViews>
   <sheets>
     <sheet name="  新挂机_XinHangUp" sheetId="10" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="125">
   <si>
     <t>战斗地图ID</t>
   </si>
@@ -224,9 +224,6 @@
   </si>
   <si>
     <t>1,3</t>
-  </si>
-  <si>
-    <t>SOUND_BGM</t>
   </si>
   <si>
     <t>阴曹地府</t>
@@ -539,25 +536,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -577,22 +557,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,17 +575,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -623,7 +598,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,17 +612,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -661,16 +643,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -714,84 +711,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -804,97 +885,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -905,6 +902,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -919,6 +931,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -941,8 +968,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -957,54 +1002,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1013,10 +1010,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1025,133 +1022,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1540,7 +1537,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1783,7 +1780,7 @@
         <v>38</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1791,7 +1788,7 @@
         <v>3005</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2">
         <v>380</v>
@@ -1800,10 +1797,10 @@
         <v>1005</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>24</v>
@@ -1812,7 +1809,7 @@
         <v>38</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1820,7 +1817,7 @@
         <v>3006</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2">
         <v>380</v>
@@ -1829,10 +1826,10 @@
         <v>1006</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>24</v>
@@ -1849,7 +1846,7 @@
         <v>3007</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2">
         <v>380</v>
@@ -1858,10 +1855,10 @@
         <v>1007</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>24</v>
@@ -1878,7 +1875,7 @@
         <v>3008</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="2">
         <v>380</v>
@@ -1887,19 +1884,19 @@
         <v>1008</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="G12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1907,7 +1904,7 @@
         <v>3009</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2">
         <v>380</v>
@@ -1916,16 +1913,16 @@
         <v>1009</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="G13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>30</v>
@@ -1936,7 +1933,7 @@
         <v>3010</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="2">
         <v>380</v>
@@ -1945,19 +1942,19 @@
         <v>1010</v>
       </c>
       <c r="E14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="G14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1965,7 +1962,7 @@
         <v>3011</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="2">
         <v>380</v>
@@ -1974,19 +1971,19 @@
         <v>1011</v>
       </c>
       <c r="E15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="G15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1994,7 +1991,7 @@
         <v>3012</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="2">
         <v>380</v>
@@ -2003,16 +2000,16 @@
         <v>1012</v>
       </c>
       <c r="E16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="G16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>30</v>
@@ -2023,7 +2020,7 @@
         <v>3013</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2">
         <v>380</v>
@@ -2032,19 +2029,19 @@
         <v>1013</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="G17" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2052,7 +2049,7 @@
         <v>3014</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="2">
         <v>380</v>
@@ -2061,16 +2058,16 @@
         <v>1014</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>26</v>
@@ -2081,7 +2078,7 @@
         <v>3015</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" s="2">
         <v>380</v>
@@ -2090,19 +2087,19 @@
         <v>1015</v>
       </c>
       <c r="E19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="G19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2110,7 +2107,7 @@
         <v>3016</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C20" s="2">
         <v>380</v>
@@ -2119,16 +2116,16 @@
         <v>1016</v>
       </c>
       <c r="E20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="G20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>30</v>
@@ -2139,7 +2136,7 @@
         <v>3017</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" s="2">
         <v>380</v>
@@ -2148,16 +2145,16 @@
         <v>1017</v>
       </c>
       <c r="E21" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="G21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>26</v>
@@ -2168,7 +2165,7 @@
         <v>3018</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C22" s="2">
         <v>380</v>
@@ -2177,16 +2174,16 @@
         <v>1018</v>
       </c>
       <c r="E22" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="G22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>30</v>
@@ -2197,7 +2194,7 @@
         <v>3019</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23" s="2">
         <v>380</v>
@@ -2206,19 +2203,19 @@
         <v>1019</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2226,7 +2223,7 @@
         <v>3020</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C24" s="2">
         <v>380</v>
@@ -2235,16 +2232,16 @@
         <v>1020</v>
       </c>
       <c r="E24" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="G24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>34</v>
@@ -2255,7 +2252,7 @@
         <v>3021</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C25" s="2">
         <v>380</v>
@@ -2264,7 +2261,7 @@
         <v>1021</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F25" s="4">
         <v>123</v>
@@ -2273,7 +2270,7 @@
         <v>24</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>26</v>
@@ -2284,7 +2281,7 @@
         <v>3022</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C26" s="2">
         <v>380</v>
@@ -2293,7 +2290,7 @@
         <v>1022</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F26" s="4">
         <v>125</v>
@@ -2302,7 +2299,7 @@
         <v>24</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>30</v>
@@ -2313,7 +2310,7 @@
         <v>3023</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" s="2">
         <v>380</v>
@@ -2322,7 +2319,7 @@
         <v>1023</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F27" s="4">
         <v>114</v>
@@ -2331,10 +2328,10 @@
         <v>24</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2342,7 +2339,7 @@
         <v>3024</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C28" s="2">
         <v>380</v>
@@ -2351,16 +2348,16 @@
         <v>1024</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>34</v>
@@ -2371,7 +2368,7 @@
         <v>3025</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C29" s="2">
         <v>380</v>
@@ -2380,16 +2377,16 @@
         <v>1025</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>26</v>
@@ -2400,7 +2397,7 @@
         <v>3026</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C30" s="2">
         <v>380</v>
@@ -2409,7 +2406,7 @@
         <v>1026</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F30" s="4">
         <v>116</v>
@@ -2418,7 +2415,7 @@
         <v>24</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>30</v>
@@ -2429,7 +2426,7 @@
         <v>3027</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C31" s="2">
         <v>380</v>
@@ -2438,7 +2435,7 @@
         <v>1027</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F31" s="4">
         <v>111</v>
@@ -2447,10 +2444,10 @@
         <v>24</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2458,7 +2455,7 @@
         <v>3028</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C32" s="2">
         <v>380</v>
@@ -2467,16 +2464,16 @@
         <v>1028</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="G32" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>34</v>
@@ -2487,7 +2484,7 @@
         <v>3029</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C33" s="2">
         <v>380</v>
@@ -2496,7 +2493,7 @@
         <v>1029</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>33</v>
@@ -2505,7 +2502,7 @@
         <v>24</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>26</v>
@@ -2516,7 +2513,7 @@
         <v>3030</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C34" s="2">
         <v>380</v>
@@ -2525,7 +2522,7 @@
         <v>1030</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>37</v>
@@ -2534,7 +2531,7 @@
         <v>24</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>30</v>
@@ -2545,7 +2542,7 @@
         <v>3031</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C35" s="2">
         <v>380</v>
@@ -2554,19 +2551,19 @@
         <v>1031</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="G35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2574,7 +2571,7 @@
         <v>3032</v>
       </c>
       <c r="B36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C36" s="2">
         <v>380</v>
@@ -2583,16 +2580,16 @@
         <v>1032</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>34</v>
@@ -2603,7 +2600,7 @@
         <v>3033</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C37" s="2">
         <v>380</v>
@@ -2612,16 +2609,16 @@
         <v>1033</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="G37" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>26</v>
@@ -2632,7 +2629,7 @@
         <v>3034</v>
       </c>
       <c r="B38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" s="2">
         <v>380</v>
@@ -2641,16 +2638,16 @@
         <v>1034</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>30</v>
@@ -2661,7 +2658,7 @@
         <v>3035</v>
       </c>
       <c r="B39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C39" s="2">
         <v>380</v>
@@ -2670,19 +2667,19 @@
         <v>1035</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2690,7 +2687,7 @@
         <v>3036</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C40" s="2">
         <v>380</v>
@@ -2699,16 +2696,16 @@
         <v>1036</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>34</v>
@@ -2719,7 +2716,7 @@
         <v>3037</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C41" s="2">
         <v>380</v>
@@ -2728,16 +2725,16 @@
         <v>1037</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>26</v>
@@ -2748,7 +2745,7 @@
         <v>3038</v>
       </c>
       <c r="B42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C42" s="2">
         <v>380</v>
@@ -2757,16 +2754,16 @@
         <v>1038</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>30</v>
@@ -2777,7 +2774,7 @@
         <v>3039</v>
       </c>
       <c r="B43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C43" s="2">
         <v>380</v>
@@ -2786,19 +2783,19 @@
         <v>1039</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F43" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="G43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2806,7 +2803,7 @@
         <v>3040</v>
       </c>
       <c r="B44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C44" s="2">
         <v>380</v>
@@ -2815,16 +2812,16 @@
         <v>1040</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>34</v>
